--- a/hw3/bcp.xlsx
+++ b/hw3/bcp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin.horn/Documents/git/data/hw3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B3C43-6971-F141-8D45-2D389ECB1994}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C499D-C47C-B44E-B5A0-2CD5A818716F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{B3B662FC-B71E-694A-B9C5-15B6D4CD44FC}"/>
   </bookViews>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9296D9-C4D0-244A-8A1C-F6F3E01C0921}">
   <dimension ref="A1:AI199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X187" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AM200" sqref="AM200"/>
     </sheetView>
   </sheetViews>
